--- a/Config/Excel/MapArea.xlsx
+++ b/Config/Excel/MapArea.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE4D17-36D4-4685-9BC7-0F7B5026FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA466D-A32F-4001-AF74-9B6E83C05FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2130" windowWidth="24525" windowHeight="12975" xr2:uid="{5594FB11-37E9-4B3F-8D2E-577CD4DF290A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5594FB11-37E9-4B3F-8D2E-577CD4DF290A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="3" r:id="rId2"/>
     <sheet name="エリア" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -46,19 +47,216 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Forward</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Left</t>
+    <t>RelatedArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RelatedAreaMapId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10,11,2,1,8,23,24,25</t>
+  </si>
+  <si>
+    <t>11,12,3,4,1,8,9,10</t>
+  </si>
+  <si>
+    <t>12,13,14,15,4,1,2,11</t>
+  </si>
+  <si>
+    <t>9,2,1,6,7,22,23,24</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>3,14,15,16,5,6,1,2</t>
+  </si>
+  <si>
+    <t>8,1,6,19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>1,4,5,18,19,20,7,8</t>
+  </si>
+  <si>
+    <t>4,15,16,17,18,19,6,1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今のエリアマップID</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周りのマップID</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11,2,9,24,25</t>
+  </si>
+  <si>
+    <t>12,3,2,9,10</t>
+  </si>
+  <si>
+    <t>13,14,3,2,11</t>
+  </si>
+  <si>
+    <t>14,3,12</t>
+  </si>
+  <si>
+    <t>13,15,4,3,12</t>
+  </si>
+  <si>
+    <t>14,16,5,4,3</t>
+  </si>
+  <si>
+    <t>15,17,18,5,4</t>
+  </si>
+  <si>
+    <t>16,,18,5</t>
+  </si>
+  <si>
+    <t>5,16,17,19,6</t>
+  </si>
+  <si>
+    <t>6,5,18,20,7</t>
+  </si>
+  <si>
+    <t>7,6,19,21,22</t>
+  </si>
+  <si>
+    <t>22,7,20</t>
+  </si>
+  <si>
+    <t>23,8,7,20,21</t>
+  </si>
+  <si>
+    <t>24,9,8,7,22</t>
+  </si>
+  <si>
+    <t>25,10,9,8,23</t>
+  </si>
+  <si>
+    <t>10,9,24</t>
+  </si>
+  <si>
+    <t>OffsetX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OffsetZ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -66,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,21 +280,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -105,18 +355,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -130,15 +400,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}" name="テーブル1" displayName="テーブル1" ref="A1:F26" totalsRowShown="0">
-  <autoFilter ref="A1:F26" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}" name="テーブル1" displayName="テーブル1" ref="A1:E26" totalsRowShown="0">
+  <autoFilter ref="A1:E26" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{084D1340-D99D-4D5C-9277-ED5776FEC0D2}" name="ID"/>
     <tableColumn id="3" xr3:uid="{572C1A7B-2C41-4183-BCD4-DCF07AC26012}" name="MapId"/>
-    <tableColumn id="4" xr3:uid="{8DA05889-1A2C-4D3F-8792-F1F2A8D31CE1}" name="Forward"/>
-    <tableColumn id="5" xr3:uid="{83B505A5-EE82-4071-9690-58A03233804C}" name="Back"/>
-    <tableColumn id="6" xr3:uid="{2F4F1D02-26B5-4D63-A6BE-D04A98FAB127}" name="Right"/>
-    <tableColumn id="7" xr3:uid="{E2F03025-3E09-4FC3-910B-232D3BAE7851}" name="Left"/>
+    <tableColumn id="4" xr3:uid="{8DA05889-1A2C-4D3F-8792-F1F2A8D31CE1}" name="RelatedArea" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1A7A7E9C-CD89-4EFC-9531-C5423999BFD6}" name="OffsetX"/>
+    <tableColumn id="5" xr3:uid="{242D6DA3-96AC-4B8F-956A-7B19909454E3}" name="OffsetZ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -441,479 +710,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A84F3DE-EB3C-44F1-825F-6FAC008A71B5}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3001</v>
       </c>
-      <c r="C2">
-        <v>6</v>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3004</v>
       </c>
-      <c r="C5">
-        <v>9</v>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3005</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3006</v>
       </c>
-      <c r="C7">
-        <v>11</v>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3007</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3008</v>
       </c>
-      <c r="C9">
-        <v>13</v>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>3009</v>
       </c>
-      <c r="C10">
-        <v>14</v>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3010</v>
       </c>
-      <c r="C11">
-        <v>15</v>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3011</v>
       </c>
-      <c r="C12">
-        <v>16</v>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3012</v>
       </c>
-      <c r="C13">
-        <v>17</v>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>3013</v>
       </c>
-      <c r="C14">
-        <v>18</v>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3014</v>
       </c>
-      <c r="C15">
-        <v>19</v>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>3015</v>
       </c>
-      <c r="C16">
-        <v>20</v>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3016</v>
       </c>
-      <c r="C17">
-        <v>21</v>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3017</v>
       </c>
-      <c r="C18">
-        <v>22</v>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3018</v>
       </c>
-      <c r="C19">
-        <v>23</v>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3019</v>
       </c>
-      <c r="C20">
-        <v>24</v>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>3020</v>
       </c>
-      <c r="C21">
-        <v>25</v>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>3021</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>3022</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D23">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3023</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>24</v>
-      </c>
-      <c r="F24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>3024</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D25">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>25</v>
-      </c>
-      <c r="F25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>3025</v>
       </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -928,14 +1179,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E244A9A0-5DDC-46E0-9E37-EB1FA8CBBDE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -943,100 +1225,411 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16EF597-CCED-4512-A041-A0B17606CE85}">
-  <dimension ref="F10:J14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="10.625" style="1"/>
+    <col min="1" max="16384" width="10.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="10" spans="6:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="1">
+    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="6:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="1">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="6:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="1">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="6:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="6:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5</v>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="4" t="str">
+        <f t="shared" ref="F11:G11" si="0">F4&amp;","&amp;G4&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;F6&amp;","&amp;E6&amp;","&amp;E5&amp;","&amp;E4</f>
+        <v>,,10,9,24,,,</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>,,11,2,9,24,25,</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>H4&amp;","&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;H6&amp;","&amp;G6&amp;","&amp;G5&amp;","&amp;G4</f>
+        <v>,,12,3,2,9,10,</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" ref="I11:J11" si="1">I4&amp;","&amp;J4&amp;","&amp;J5&amp;","&amp;J6&amp;","&amp;I6&amp;","&amp;H6&amp;","&amp;H5&amp;","&amp;H4</f>
+        <v>,,13,14,3,2,11,</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>,,,,14,3,12,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="4" t="str">
+        <f t="shared" ref="F12:G12" si="2">F5&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;G7&amp;","&amp;F7&amp;","&amp;E7&amp;","&amp;E6&amp;","&amp;E5</f>
+        <v>25,10,9,8,23,,,</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>10,11,2,1,8,23,24,25</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>H5&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;H7&amp;","&amp;G7&amp;","&amp;G6&amp;","&amp;G5</f>
+        <v>11,12,3,4,1,8,9,10</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" ref="I12:J12" si="3">I5&amp;","&amp;J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;I7&amp;","&amp;H7&amp;","&amp;H6&amp;","&amp;H5</f>
+        <v>12,13,14,15,4,1,2,11</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13,,,,15,4,3,12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="4" t="str">
+        <f t="shared" ref="F13:G13" si="4">F6&amp;","&amp;G6&amp;","&amp;G7&amp;","&amp;G8&amp;","&amp;F8&amp;","&amp;E8&amp;","&amp;E7&amp;","&amp;E6</f>
+        <v>24,9,8,7,22,,,</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9,2,1,6,7,22,23,24</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>H6&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;H8&amp;","&amp;G8&amp;","&amp;G7&amp;","&amp;G6</f>
+        <v>2,3,4,5,6,7,8,9</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" ref="I13:J13" si="5">I6&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;I8&amp;","&amp;H8&amp;","&amp;H7&amp;","&amp;H6</f>
+        <v>3,14,15,16,5,6,1,2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>14,,,,16,5,4,3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="4" t="str">
+        <f t="shared" ref="F14:G14" si="6">F7&amp;","&amp;G7&amp;","&amp;G8&amp;","&amp;G9&amp;","&amp;F9&amp;","&amp;E9&amp;","&amp;E8&amp;","&amp;E7</f>
+        <v>23,8,7,20,21,,,</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8,1,6,19,20,21,22,23</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>H7&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;H9&amp;","&amp;G9&amp;","&amp;G8&amp;","&amp;G7</f>
+        <v>1,4,5,18,19,20,7,8</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" ref="I14:J14" si="7">I7&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;I9&amp;","&amp;H9&amp;","&amp;H8&amp;","&amp;H7</f>
+        <v>4,15,16,17,18,19,6,1</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>15,,,,17,18,5,4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="4" t="str">
+        <f t="shared" ref="F15:G15" si="8">F8&amp;","&amp;G8&amp;","&amp;G9&amp;","&amp;G10&amp;","&amp;F10&amp;","&amp;E10&amp;","&amp;E9&amp;","&amp;E8</f>
+        <v>22,7,20,,,,,</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7,6,19,,,,21,22</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>H8&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;H10&amp;","&amp;G10&amp;","&amp;G9&amp;","&amp;G8</f>
+        <v>6,5,18,,,,20,7</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" ref="I15:J15" si="9">I8&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;I10&amp;","&amp;H10&amp;","&amp;H9&amp;","&amp;H8</f>
+        <v>5,16,17,,,,19,6</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>16,,,,,,18,5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC775B7-897D-44AB-8783-452C7AE713BE}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>エリア!H13</f>
+        <v>2,3,4,5,6,7,8,9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f>エリア!H12</f>
+        <v>11,12,3,4,1,8,9,10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f>エリア!I12</f>
+        <v>12,13,14,15,4,1,2,11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f>エリア!I13</f>
+        <v>3,14,15,16,5,6,1,2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f>エリア!I14</f>
+        <v>4,15,16,17,18,19,6,1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f>エリア!H14</f>
+        <v>1,4,5,18,19,20,7,8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f>エリア!G14</f>
+        <v>8,1,6,19,20,21,22,23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f>エリア!G13</f>
+        <v>9,2,1,6,7,22,23,24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f>エリア!G12</f>
+        <v>10,11,2,1,8,23,24,25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f>エリア!G11</f>
+        <v>,,11,2,9,24,25,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f>エリア!H11</f>
+        <v>,,12,3,2,9,10,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f>エリア!I11</f>
+        <v>,,13,14,3,2,11,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f>エリア!J11</f>
+        <v>,,,,14,3,12,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f>エリア!J12</f>
+        <v>13,,,,15,4,3,12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f>エリア!J13</f>
+        <v>14,,,,16,5,4,3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f>エリア!J14</f>
+        <v>15,,,,17,18,5,4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f>エリア!J15</f>
+        <v>16,,,,,,18,5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="str">
+        <f>エリア!I15</f>
+        <v>5,16,17,,,,19,6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="str">
+        <f>エリア!H15</f>
+        <v>6,5,18,,,,20,7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="str">
+        <f>エリア!G15</f>
+        <v>7,6,19,,,,21,22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="str">
+        <f>エリア!F15</f>
+        <v>22,7,20,,,,,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="str">
+        <f>エリア!F14</f>
+        <v>23,8,7,20,21,,,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="str">
+        <f>エリア!F13</f>
+        <v>24,9,8,7,22,,,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="str">
+        <f>エリア!F12</f>
+        <v>25,10,9,8,23,,,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="str">
+        <f>エリア!F11</f>
+        <v>,,10,9,24,,,</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/MapArea.xlsx
+++ b/Config/Excel/MapArea.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA466D-A32F-4001-AF74-9B6E83C05FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A20AAA-823E-466B-B660-6F66972B8D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5594FB11-37E9-4B3F-8D2E-577CD4DF290A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5594FB11-37E9-4B3F-8D2E-577CD4DF290A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="3" r:id="rId2"/>
     <sheet name="エリア" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -47,47 +46,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RelatedArea</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RelatedAreaMapId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10,11,2,1,8,23,24,25</t>
-  </si>
-  <si>
-    <t>11,12,3,4,1,8,9,10</t>
-  </si>
-  <si>
-    <t>12,13,14,15,4,1,2,11</t>
-  </si>
-  <si>
-    <t>9,2,1,6,7,22,23,24</t>
-  </si>
-  <si>
-    <t>2,3,4,5,6,7,8,9</t>
-  </si>
-  <si>
-    <t>3,14,15,16,5,6,1,2</t>
-  </si>
-  <si>
-    <t>8,1,6,19,20,21,22,23</t>
-  </si>
-  <si>
-    <t>1,4,5,18,19,20,7,8</t>
-  </si>
-  <si>
-    <t>4,15,16,17,18,19,6,1</t>
   </si>
   <si>
     <t>1</t>
@@ -105,158 +69,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>周りのマップID</t>
-    <rPh sb="0" eb="1">
-      <t>マワ</t>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OffsetX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OffsetZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始点からXの偏位</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11,2,9,24,25</t>
-  </si>
-  <si>
-    <t>12,3,2,9,10</t>
-  </si>
-  <si>
-    <t>13,14,3,2,11</t>
-  </si>
-  <si>
-    <t>14,3,12</t>
-  </si>
-  <si>
-    <t>13,15,4,3,12</t>
-  </si>
-  <si>
-    <t>14,16,5,4,3</t>
-  </si>
-  <si>
-    <t>15,17,18,5,4</t>
-  </si>
-  <si>
-    <t>16,,18,5</t>
-  </si>
-  <si>
-    <t>5,16,17,19,6</t>
-  </si>
-  <si>
-    <t>6,5,18,20,7</t>
-  </si>
-  <si>
-    <t>7,6,19,21,22</t>
-  </si>
-  <si>
-    <t>22,7,20</t>
-  </si>
-  <si>
-    <t>23,8,7,20,21</t>
-  </si>
-  <si>
-    <t>24,9,8,7,22</t>
-  </si>
-  <si>
-    <t>25,10,9,8,23</t>
-  </si>
-  <si>
-    <t>10,9,24</t>
-  </si>
-  <si>
-    <t>OffsetX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OffsetZ</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始点からZの偏位</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -355,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,22 +296,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,12 +317,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}" name="テーブル1" displayName="テーブル1" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}" name="テーブル1" displayName="テーブル1" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{18BAC0FB-6259-40CD-AEBE-D897B5D4D192}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{084D1340-D99D-4D5C-9277-ED5776FEC0D2}" name="ID"/>
     <tableColumn id="3" xr3:uid="{572C1A7B-2C41-4183-BCD4-DCF07AC26012}" name="MapId"/>
-    <tableColumn id="4" xr3:uid="{8DA05889-1A2C-4D3F-8792-F1F2A8D31CE1}" name="RelatedArea" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1A7A7E9C-CD89-4EFC-9531-C5423999BFD6}" name="OffsetX"/>
     <tableColumn id="5" xr3:uid="{242D6DA3-96AC-4B8F-956A-7B19909454E3}" name="OffsetZ"/>
   </tableColumns>
@@ -710,460 +626,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A84F3DE-EB3C-44F1-825F-6FAC008A71B5}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
+      <c r="C1" t="s">
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3001</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3002</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3003</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3004</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3005</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3006</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>3007</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3008</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>3009</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
+      <c r="C10">
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3010</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
+      <c r="C11">
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3011</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3012</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>3013</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>3014</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>3015</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>47</v>
+      <c r="C16">
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3016</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3017</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3018</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3019</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
+      <c r="C20">
+        <v>3</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>3020</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>52</v>
+      <c r="C21">
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>3021</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>3022</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>54</v>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3023</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>3024</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
+      <c r="C25">
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>3025</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>57</v>
+      <c r="C26">
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
         <v>4</v>
       </c>
     </row>
@@ -1179,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E244A9A0-5DDC-46E0-9E37-EB1FA8CBBDE3}">
-  <dimension ref="A4:A9"/>
+  <dimension ref="A4:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1194,7 +1031,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
@@ -1204,17 +1041,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
+      <c r="A8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1227,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16EF597-CCED-4512-A041-A0B17606CE85}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1238,12 +1085,12 @@
   <sheetData>
     <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -1255,7 +1102,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1266,19 +1113,19 @@
     </row>
     <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1289,19 +1136,19 @@
     </row>
     <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1312,19 +1159,19 @@
     </row>
     <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1335,19 +1182,19 @@
     </row>
     <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1357,283 +1204,43 @@
       <c r="T9" s="4"/>
     </row>
     <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="4" t="str">
-        <f t="shared" ref="F11:G11" si="0">F4&amp;","&amp;G4&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;F6&amp;","&amp;E6&amp;","&amp;E5&amp;","&amp;E4</f>
-        <v>,,10,9,24,,,</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>,,11,2,9,24,25,</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f>H4&amp;","&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;H6&amp;","&amp;G6&amp;","&amp;G5&amp;","&amp;G4</f>
-        <v>,,12,3,2,9,10,</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" ref="I11:J11" si="1">I4&amp;","&amp;J4&amp;","&amp;J5&amp;","&amp;J6&amp;","&amp;I6&amp;","&amp;H6&amp;","&amp;H5&amp;","&amp;H4</f>
-        <v>,,13,14,3,2,11,</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>,,,,14,3,12,</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="4" t="str">
-        <f t="shared" ref="F12:G12" si="2">F5&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;G7&amp;","&amp;F7&amp;","&amp;E7&amp;","&amp;E6&amp;","&amp;E5</f>
-        <v>25,10,9,8,23,,,</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>10,11,2,1,8,23,24,25</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f>H5&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;H7&amp;","&amp;G7&amp;","&amp;G6&amp;","&amp;G5</f>
-        <v>11,12,3,4,1,8,9,10</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f t="shared" ref="I12:J12" si="3">I5&amp;","&amp;J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;I7&amp;","&amp;H7&amp;","&amp;H6&amp;","&amp;H5</f>
-        <v>12,13,14,15,4,1,2,11</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>13,,,,15,4,3,12</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="4" t="str">
-        <f t="shared" ref="F13:G13" si="4">F6&amp;","&amp;G6&amp;","&amp;G7&amp;","&amp;G8&amp;","&amp;F8&amp;","&amp;E8&amp;","&amp;E7&amp;","&amp;E6</f>
-        <v>24,9,8,7,22,,,</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>9,2,1,6,7,22,23,24</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>H6&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;H8&amp;","&amp;G8&amp;","&amp;G7&amp;","&amp;G6</f>
-        <v>2,3,4,5,6,7,8,9</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" ref="I13:J13" si="5">I6&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;I8&amp;","&amp;H8&amp;","&amp;H7&amp;","&amp;H6</f>
-        <v>3,14,15,16,5,6,1,2</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>14,,,,16,5,4,3</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="4" t="str">
-        <f t="shared" ref="F14:G14" si="6">F7&amp;","&amp;G7&amp;","&amp;G8&amp;","&amp;G9&amp;","&amp;F9&amp;","&amp;E9&amp;","&amp;E8&amp;","&amp;E7</f>
-        <v>23,8,7,20,21,,,</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>8,1,6,19,20,21,22,23</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f>H7&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;H9&amp;","&amp;G9&amp;","&amp;G8&amp;","&amp;G7</f>
-        <v>1,4,5,18,19,20,7,8</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f t="shared" ref="I14:J14" si="7">I7&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;I9&amp;","&amp;H9&amp;","&amp;H8&amp;","&amp;H7</f>
-        <v>4,15,16,17,18,19,6,1</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>15,,,,17,18,5,4</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F15" s="4" t="str">
-        <f t="shared" ref="F15:G15" si="8">F8&amp;","&amp;G8&amp;","&amp;G9&amp;","&amp;G10&amp;","&amp;F10&amp;","&amp;E10&amp;","&amp;E9&amp;","&amp;E8</f>
-        <v>22,7,20,,,,,</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>7,6,19,,,,21,22</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <f>H8&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;H10&amp;","&amp;G10&amp;","&amp;G9&amp;","&amp;G8</f>
-        <v>6,5,18,,,,20,7</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <f t="shared" ref="I15:J15" si="9">I8&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;I10&amp;","&amp;H10&amp;","&amp;H9&amp;","&amp;H8</f>
-        <v>5,16,17,,,,19,6</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>16,,,,,,18,5</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC775B7-897D-44AB-8783-452C7AE713BE}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="str">
-        <f>エリア!H13</f>
-        <v>2,3,4,5,6,7,8,9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="str">
-        <f>エリア!H12</f>
-        <v>11,12,3,4,1,8,9,10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="str">
-        <f>エリア!I12</f>
-        <v>12,13,14,15,4,1,2,11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="str">
-        <f>エリア!I13</f>
-        <v>3,14,15,16,5,6,1,2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="str">
-        <f>エリア!I14</f>
-        <v>4,15,16,17,18,19,6,1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="str">
-        <f>エリア!H14</f>
-        <v>1,4,5,18,19,20,7,8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="str">
-        <f>エリア!G14</f>
-        <v>8,1,6,19,20,21,22,23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="str">
-        <f>エリア!G13</f>
-        <v>9,2,1,6,7,22,23,24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="str">
-        <f>エリア!G12</f>
-        <v>10,11,2,1,8,23,24,25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="str">
-        <f>エリア!G11</f>
-        <v>,,11,2,9,24,25,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="str">
-        <f>エリア!H11</f>
-        <v>,,12,3,2,9,10,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="str">
-        <f>エリア!I11</f>
-        <v>,,13,14,3,2,11,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="str">
-        <f>エリア!J11</f>
-        <v>,,,,14,3,12,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="str">
-        <f>エリア!J12</f>
-        <v>13,,,,15,4,3,12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="str">
-        <f>エリア!J13</f>
-        <v>14,,,,16,5,4,3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="str">
-        <f>エリア!J14</f>
-        <v>15,,,,17,18,5,4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="str">
-        <f>エリア!J15</f>
-        <v>16,,,,,,18,5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="str">
-        <f>エリア!I15</f>
-        <v>5,16,17,,,,19,6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="str">
-        <f>エリア!H15</f>
-        <v>6,5,18,,,,20,7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="str">
-        <f>エリア!G15</f>
-        <v>7,6,19,,,,21,22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="str">
-        <f>エリア!F15</f>
-        <v>22,7,20,,,,,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="str">
-        <f>エリア!F14</f>
-        <v>23,8,7,20,21,,,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="str">
-        <f>エリア!F13</f>
-        <v>24,9,8,7,22,,,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="str">
-        <f>エリア!F12</f>
-        <v>25,10,9,8,23,,,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="str">
-        <f>エリア!F11</f>
-        <v>,,10,9,24,,,</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>